--- a/data/occurences/interim/GranCanaria_ES_TOTAL_v1.xlsx
+++ b/data/occurences/interim/GranCanaria_ES_TOTAL_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WARD\OneDrive - UGent\School\1ste master\sem_2\Project\data\occurences\interim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WARD\OneDrive - UGent\School\1ste master\sem_2\Project\landsnails-occurrences\data\occurences\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="543" documentId="11_F25DC773A252ABDACC10485D49DE6EB05ADE58E7" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{183FCBA7-7034-47C2-9223-09D8B35E63D9}"/>
+  <xr:revisionPtr revIDLastSave="568" documentId="11_F25DC773A252ABDACC10485D49DE6EB05ADE58E7" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F2C75F84-E92E-4C18-B6FB-FC25643C1A1A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14148" yWindow="4008" windowWidth="23040" windowHeight="11076" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AF$344</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6859" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6865" uniqueCount="665">
   <si>
     <t>orderNumber</t>
   </si>
@@ -2009,6 +2015,21 @@
   </si>
   <si>
     <t>coordinateUncertaintyInMeters</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2071,6 +2092,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2355,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R344"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32072,10 +32096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E53F98C-C9C3-4A73-95D1-4B8B4ABD340A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:N344"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32083,9 +32107,16 @@
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -32095,8 +32126,27 @@
       <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -32106,24 +32156,1064 @@
       <c r="C2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="1">
+        <v>-15.782737729999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-15.389485000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>28.160022999999999</v>
+      </c>
+      <c r="H2" s="1">
+        <v>27.73919296</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3">
+        <v>32241</v>
+      </c>
+      <c r="K2" s="3">
+        <v>43869</v>
+      </c>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M80" s="3"/>
+    </row>
+    <row r="81" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M102" s="3"/>
+    </row>
+    <row r="103" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M103" s="3"/>
+    </row>
+    <row r="104" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M104" s="3"/>
+    </row>
+    <row r="105" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M105" s="3"/>
+    </row>
+    <row r="106" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M106" s="3"/>
+    </row>
+    <row r="107" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M107" s="3"/>
+    </row>
+    <row r="108" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M108" s="3"/>
+    </row>
+    <row r="109" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M109" s="3"/>
+    </row>
+    <row r="110" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M110" s="3"/>
+    </row>
+    <row r="111" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M111" s="3"/>
+    </row>
+    <row r="112" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M112" s="3"/>
+    </row>
+    <row r="113" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M113" s="3"/>
+    </row>
+    <row r="114" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M114" s="3"/>
+    </row>
+    <row r="115" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M115" s="3"/>
+    </row>
+    <row r="116" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M116" s="3"/>
+    </row>
+    <row r="117" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M117" s="3"/>
+    </row>
+    <row r="118" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M118" s="3"/>
+    </row>
+    <row r="119" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M119" s="3"/>
+    </row>
+    <row r="120" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M120" s="3"/>
+    </row>
+    <row r="121" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M121" s="3"/>
+    </row>
+    <row r="122" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M122" s="3"/>
+    </row>
+    <row r="123" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M123" s="3"/>
+    </row>
+    <row r="124" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M124" s="3"/>
+    </row>
+    <row r="125" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M125" s="3"/>
+    </row>
+    <row r="126" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M126" s="3"/>
+    </row>
+    <row r="127" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M127" s="3"/>
+    </row>
+    <row r="128" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M128" s="3"/>
+    </row>
+    <row r="129" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M129" s="3"/>
+    </row>
+    <row r="130" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M130" s="3"/>
+    </row>
+    <row r="131" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M131" s="3"/>
+    </row>
+    <row r="132" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M132" s="3"/>
+    </row>
+    <row r="133" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M133" s="3"/>
+    </row>
+    <row r="134" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M134" s="3"/>
+    </row>
+    <row r="135" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M135" s="3"/>
+    </row>
+    <row r="136" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M136" s="3"/>
+    </row>
+    <row r="137" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M137" s="3"/>
+    </row>
+    <row r="138" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M138" s="3"/>
+    </row>
+    <row r="139" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M139" s="3"/>
+    </row>
+    <row r="140" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M140" s="3"/>
+    </row>
+    <row r="141" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M141" s="3"/>
+    </row>
+    <row r="142" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M142" s="3"/>
+    </row>
+    <row r="143" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M143" s="3"/>
+    </row>
+    <row r="144" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M144" s="3"/>
+    </row>
+    <row r="145" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M145" s="3"/>
+    </row>
+    <row r="146" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M146" s="3"/>
+    </row>
+    <row r="147" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M147" s="3"/>
+    </row>
+    <row r="148" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M148" s="3"/>
+    </row>
+    <row r="149" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M149" s="3"/>
+    </row>
+    <row r="150" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M150" s="3"/>
+    </row>
+    <row r="151" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M151" s="3"/>
+    </row>
+    <row r="152" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M152" s="3"/>
+    </row>
+    <row r="153" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M153" s="3"/>
+    </row>
+    <row r="154" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M154" s="3"/>
+    </row>
+    <row r="155" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M155" s="3"/>
+    </row>
+    <row r="156" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M156" s="3"/>
+    </row>
+    <row r="157" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M157" s="3"/>
+    </row>
+    <row r="158" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M158" s="3"/>
+    </row>
+    <row r="159" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M159" s="3"/>
+    </row>
+    <row r="160" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M160" s="3"/>
+    </row>
+    <row r="161" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M161" s="3"/>
+    </row>
+    <row r="162" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M162" s="3"/>
+    </row>
+    <row r="163" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M163" s="3"/>
+    </row>
+    <row r="164" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M164" s="3"/>
+    </row>
+    <row r="165" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M165" s="3"/>
+    </row>
+    <row r="166" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M166" s="3"/>
+    </row>
+    <row r="167" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M167" s="3"/>
+    </row>
+    <row r="168" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M168" s="3"/>
+    </row>
+    <row r="169" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M169" s="3"/>
+    </row>
+    <row r="170" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M170" s="3"/>
+    </row>
+    <row r="171" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M171" s="3"/>
+    </row>
+    <row r="172" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M172" s="3"/>
+    </row>
+    <row r="173" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M173" s="3"/>
+    </row>
+    <row r="174" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M174" s="3"/>
+    </row>
+    <row r="175" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M175" s="3"/>
+    </row>
+    <row r="176" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M176" s="3"/>
+    </row>
+    <row r="177" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M177" s="3"/>
+    </row>
+    <row r="178" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M178" s="3"/>
+    </row>
+    <row r="179" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M179" s="3"/>
+    </row>
+    <row r="180" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M180" s="3"/>
+    </row>
+    <row r="181" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M181" s="3"/>
+    </row>
+    <row r="182" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M182" s="3"/>
+    </row>
+    <row r="183" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M183" s="3"/>
+    </row>
+    <row r="184" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M184" s="3"/>
+    </row>
+    <row r="185" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M185" s="3"/>
+    </row>
+    <row r="186" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M186" s="3"/>
+    </row>
+    <row r="187" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M187" s="3"/>
+    </row>
+    <row r="188" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M188" s="3"/>
+    </row>
+    <row r="189" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M189" s="3"/>
+    </row>
+    <row r="190" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M190" s="3"/>
+    </row>
+    <row r="191" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M191" s="3"/>
+    </row>
+    <row r="192" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M192" s="3"/>
+    </row>
+    <row r="193" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M193" s="3"/>
+    </row>
+    <row r="194" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M194" s="3"/>
+    </row>
+    <row r="195" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M195" s="3"/>
+    </row>
+    <row r="196" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M196" s="3"/>
+    </row>
+    <row r="197" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M197" s="3"/>
+    </row>
+    <row r="198" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M198" s="3"/>
+    </row>
+    <row r="199" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M199" s="3"/>
+    </row>
+    <row r="200" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M200" s="3"/>
+    </row>
+    <row r="201" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M201" s="3"/>
+    </row>
+    <row r="202" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M202" s="3"/>
+    </row>
+    <row r="203" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M203" s="3"/>
+    </row>
+    <row r="204" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M204" s="3"/>
+    </row>
+    <row r="205" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M205" s="3"/>
+    </row>
+    <row r="206" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M206" s="3"/>
+    </row>
+    <row r="207" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M207" s="3"/>
+    </row>
+    <row r="208" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M208" s="3"/>
+    </row>
+    <row r="209" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M209" s="3"/>
+    </row>
+    <row r="210" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M210" s="3"/>
+    </row>
+    <row r="211" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M211" s="3"/>
+    </row>
+    <row r="212" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M212" s="3"/>
+    </row>
+    <row r="213" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M213" s="3"/>
+    </row>
+    <row r="214" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M214" s="3"/>
+    </row>
+    <row r="215" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M215" s="3"/>
+    </row>
+    <row r="216" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M216" s="3"/>
+    </row>
+    <row r="217" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M217" s="3"/>
+    </row>
+    <row r="218" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M218" s="3"/>
+    </row>
+    <row r="219" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M219" s="3"/>
+    </row>
+    <row r="220" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M220" s="3"/>
+    </row>
+    <row r="221" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M221" s="3"/>
+    </row>
+    <row r="222" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M222" s="3"/>
+    </row>
+    <row r="223" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M223" s="3"/>
+    </row>
+    <row r="224" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M224" s="3"/>
+    </row>
+    <row r="225" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M225" s="3"/>
+    </row>
+    <row r="226" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M226" s="3"/>
+    </row>
+    <row r="227" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M227" s="3"/>
+    </row>
+    <row r="228" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M228" s="3"/>
+    </row>
+    <row r="229" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M229" s="3"/>
+    </row>
+    <row r="230" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M230" s="3"/>
+    </row>
+    <row r="231" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M231" s="3"/>
+    </row>
+    <row r="232" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M232" s="3"/>
+    </row>
+    <row r="233" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M233" s="3"/>
+    </row>
+    <row r="234" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M234" s="3"/>
+    </row>
+    <row r="235" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M235" s="3"/>
+    </row>
+    <row r="236" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M236" s="3"/>
+    </row>
+    <row r="237" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M237" s="3"/>
+    </row>
+    <row r="238" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M238" s="3"/>
+    </row>
+    <row r="239" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M239" s="3"/>
+    </row>
+    <row r="240" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M240" s="3"/>
+    </row>
+    <row r="241" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M241" s="3"/>
+    </row>
+    <row r="242" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M242" s="3"/>
+    </row>
+    <row r="243" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M243" s="3"/>
+    </row>
+    <row r="244" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M244" s="3"/>
+    </row>
+    <row r="245" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M245" s="3"/>
+    </row>
+    <row r="246" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M246" s="3"/>
+    </row>
+    <row r="247" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M247" s="3"/>
+    </row>
+    <row r="248" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M248" s="3"/>
+    </row>
+    <row r="249" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M249" s="3"/>
+    </row>
+    <row r="250" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M250" s="3"/>
+    </row>
+    <row r="251" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M251" s="3"/>
+    </row>
+    <row r="252" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M252" s="3"/>
+    </row>
+    <row r="253" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M253" s="3"/>
+    </row>
+    <row r="254" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M254" s="3"/>
+    </row>
+    <row r="255" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M255" s="3"/>
+    </row>
+    <row r="256" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M256" s="3"/>
+    </row>
+    <row r="257" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M257" s="3"/>
+    </row>
+    <row r="258" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M258" s="3"/>
+    </row>
+    <row r="259" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M259" s="3"/>
+    </row>
+    <row r="260" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M260" s="3"/>
+    </row>
+    <row r="261" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M261" s="3"/>
+    </row>
+    <row r="262" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M262" s="3"/>
+    </row>
+    <row r="263" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M263" s="3"/>
+    </row>
+    <row r="264" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M264" s="3"/>
+    </row>
+    <row r="265" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M265" s="3"/>
+    </row>
+    <row r="266" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M266" s="3"/>
+    </row>
+    <row r="267" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M267" s="3"/>
+    </row>
+    <row r="268" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M268" s="3"/>
+    </row>
+    <row r="269" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M269" s="3"/>
+    </row>
+    <row r="270" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M270" s="3"/>
+    </row>
+    <row r="271" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M271" s="3"/>
+    </row>
+    <row r="272" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M272" s="3"/>
+    </row>
+    <row r="273" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M273" s="3"/>
+    </row>
+    <row r="274" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M274" s="3"/>
+    </row>
+    <row r="275" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M275" s="3"/>
+    </row>
+    <row r="276" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M276" s="3"/>
+    </row>
+    <row r="277" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M277" s="3"/>
+    </row>
+    <row r="278" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M278" s="3"/>
+    </row>
+    <row r="279" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M279" s="3"/>
+    </row>
+    <row r="280" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M280" s="3"/>
+    </row>
+    <row r="281" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M281" s="3"/>
+    </row>
+    <row r="282" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M282" s="3"/>
+    </row>
+    <row r="283" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M283" s="3"/>
+    </row>
+    <row r="284" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M284" s="3"/>
+    </row>
+    <row r="285" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M285" s="3"/>
+    </row>
+    <row r="286" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M286" s="3"/>
+    </row>
+    <row r="287" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M287" s="3"/>
+    </row>
+    <row r="288" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M288" s="3"/>
+    </row>
+    <row r="289" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M289" s="3"/>
+    </row>
+    <row r="290" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M290" s="3"/>
+    </row>
+    <row r="291" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M291" s="3"/>
+    </row>
+    <row r="292" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M292" s="3"/>
+    </row>
+    <row r="293" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M293" s="3"/>
+    </row>
+    <row r="294" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M294" s="3"/>
+    </row>
+    <row r="295" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M295" s="3"/>
+    </row>
+    <row r="296" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M296" s="3"/>
+    </row>
+    <row r="297" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M297" s="3"/>
+    </row>
+    <row r="298" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M298" s="3"/>
+    </row>
+    <row r="299" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M299" s="3"/>
+    </row>
+    <row r="300" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M300" s="3"/>
+    </row>
+    <row r="301" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M301" s="3"/>
+    </row>
+    <row r="302" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M302" s="3"/>
+    </row>
+    <row r="303" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M303" s="3"/>
+    </row>
+    <row r="304" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M304" s="3"/>
+    </row>
+    <row r="305" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M305" s="3"/>
+    </row>
+    <row r="306" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M306" s="3"/>
+    </row>
+    <row r="307" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M307" s="3"/>
+    </row>
+    <row r="308" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M308" s="3"/>
+    </row>
+    <row r="309" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M309" s="3"/>
+    </row>
+    <row r="310" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M310" s="3"/>
+    </row>
+    <row r="311" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M311" s="3"/>
+    </row>
+    <row r="312" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M312" s="3"/>
+    </row>
+    <row r="313" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M313" s="3"/>
+    </row>
+    <row r="314" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M314" s="3"/>
+    </row>
+    <row r="315" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M315" s="3"/>
+    </row>
+    <row r="316" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M316" s="3"/>
+    </row>
+    <row r="317" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M317" s="3"/>
+    </row>
+    <row r="318" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M318" s="3"/>
+    </row>
+    <row r="319" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M319" s="3"/>
+    </row>
+    <row r="320" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M320" s="3"/>
+    </row>
+    <row r="321" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M321" s="3"/>
+    </row>
+    <row r="322" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M322" s="3"/>
+    </row>
+    <row r="323" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M323" s="3"/>
+    </row>
+    <row r="324" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M324" s="3"/>
+    </row>
+    <row r="325" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M325" s="3"/>
+    </row>
+    <row r="326" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M326" s="3"/>
+    </row>
+    <row r="327" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M327" s="3"/>
+    </row>
+    <row r="328" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M328" s="3"/>
+    </row>
+    <row r="329" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M329" s="3"/>
+    </row>
+    <row r="330" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M330" s="3"/>
+    </row>
+    <row r="331" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M331" s="3"/>
+    </row>
+    <row r="332" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M332" s="3"/>
+    </row>
+    <row r="333" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M333" s="3"/>
+    </row>
+    <row r="334" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M334" s="3"/>
+    </row>
+    <row r="335" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M335" s="3"/>
+    </row>
+    <row r="336" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M336" s="3"/>
+    </row>
+    <row r="337" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M337" s="3"/>
+    </row>
+    <row r="338" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M338" s="3"/>
+    </row>
+    <row r="339" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M339" s="3"/>
+    </row>
+    <row r="340" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M340" s="3"/>
+    </row>
+    <row r="341" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M341" s="3"/>
+    </row>
+    <row r="342" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M342" s="3"/>
+    </row>
+    <row r="343" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M343" s="3"/>
+    </row>
+    <row r="344" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M344" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/occurences/interim/GranCanaria_ES_TOTAL_v1.xlsx
+++ b/data/occurences/interim/GranCanaria_ES_TOTAL_v1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="568" documentId="11_F25DC773A252ABDACC10485D49DE6EB05ADE58E7" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F2C75F84-E92E-4C18-B6FB-FC25643C1A1A}"/>
   <bookViews>
-    <workbookView xWindow="-14148" yWindow="4008" windowWidth="23040" windowHeight="11076" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2379,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF344"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32098,7 +32098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E53F98C-C9C3-4A73-95D1-4B8B4ABD340A}">
   <dimension ref="A1:N344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>

--- a/data/occurences/interim/GranCanaria_ES_TOTAL_v1.xlsx
+++ b/data/occurences/interim/GranCanaria_ES_TOTAL_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WARD\OneDrive - UGent\School\1ste master\sem_2\Project\landsnails-occurrences\data\occurences\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="568" documentId="11_F25DC773A252ABDACC10485D49DE6EB05ADE58E7" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F2C75F84-E92E-4C18-B6FB-FC25643C1A1A}"/>
+  <xr:revisionPtr revIDLastSave="569" documentId="11_F25DC773A252ABDACC10485D49DE6EB05ADE58E7" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{74426F09-F9F4-4D4B-9205-BD4CC25E9F6C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2379,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF344"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="W35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2415,7 +2415,7 @@
     <col min="28" max="28" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="104.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -32098,7 +32098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E53F98C-C9C3-4A73-95D1-4B8B4ABD340A}">
   <dimension ref="A1:N344"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
